--- a/final_data_pipeline/output/322120_kraft_elec.xlsx
+++ b/final_data_pipeline/output/322120_kraft_elec.xlsx
@@ -861,7 +861,7 @@
         <v>70</v>
       </c>
       <c r="K5">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="L5">
         <v>8000</v>
@@ -882,10 +882,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R5">
-        <v>1.800714285714286</v>
+        <v>2.017497406510892</v>
       </c>
       <c r="S5">
-        <v>1.963947368421052</v>
+        <v>2.228623569098047</v>
       </c>
       <c r="T5">
         <v>193.2930921013593</v>
@@ -920,7 +920,7 @@
         <v>71</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="L6">
         <v>8000</v>
@@ -935,10 +935,10 @@
         <v>2629726.365718756</v>
       </c>
       <c r="R6">
-        <v>1.280428571428571</v>
+        <v>1.368667816644515</v>
       </c>
       <c r="S6">
-        <v>1.342878787878788</v>
+        <v>1.441442038370027</v>
       </c>
       <c r="T6">
         <v>328.7157957148445</v>
@@ -973,7 +973,7 @@
         <v>72</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="L7">
         <v>8000</v>
@@ -1680,7 +1680,7 @@
         <v>71</v>
       </c>
       <c r="K20">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="L20">
         <v>8000</v>
@@ -1695,10 +1695,10 @@
         <v>702073.6425526593</v>
       </c>
       <c r="R20">
-        <v>1.280428571428571</v>
+        <v>1.233817681248088</v>
       </c>
       <c r="S20">
-        <v>1.342878787878788</v>
+        <v>1.291146001942376</v>
       </c>
       <c r="T20">
         <v>87.75920531908241</v>
@@ -1739,7 +1739,7 @@
         <v>70</v>
       </c>
       <c r="K21">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="L21">
         <v>8000</v>
@@ -1760,10 +1760,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R21">
-        <v>1.800714285714286</v>
+        <v>1.694051767048283</v>
       </c>
       <c r="S21">
-        <v>1.963947368421052</v>
+        <v>1.836167304537999</v>
       </c>
       <c r="T21">
         <v>51.60460305716139</v>
@@ -1798,7 +1798,7 @@
         <v>72</v>
       </c>
       <c r="K22">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="L22">
         <v>8000</v>
@@ -2670,7 +2670,7 @@
         <v>71</v>
       </c>
       <c r="K38">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="L38">
         <v>8000</v>
@@ -2685,10 +2685,10 @@
         <v>1488030.844014267</v>
       </c>
       <c r="R38">
-        <v>1.280428571428571</v>
+        <v>1.203236793039155</v>
       </c>
       <c r="S38">
-        <v>1.342878787878788</v>
+        <v>1.257328254301852</v>
       </c>
       <c r="T38">
         <v>186.0038555017833</v>
@@ -2729,7 +2729,7 @@
         <v>70</v>
       </c>
       <c r="K39">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="L39">
         <v>8000</v>
@@ -2750,10 +2750,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R39">
-        <v>1.800714285714286</v>
+        <v>1.626775542720574</v>
       </c>
       <c r="S39">
-        <v>1.963947368421052</v>
+        <v>1.756382654173023</v>
       </c>
       <c r="T39">
         <v>109.3749093940804</v>
@@ -2788,7 +2788,7 @@
         <v>72</v>
       </c>
       <c r="K40">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="L40">
         <v>8000</v>
@@ -3377,7 +3377,7 @@
         <v>71</v>
       </c>
       <c r="K51">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="L51">
         <v>8000</v>
@@ -3392,10 +3392,10 @@
         <v>1424057.925765325</v>
       </c>
       <c r="R51">
-        <v>1.280428571428571</v>
+        <v>1.372938473321419</v>
       </c>
       <c r="S51">
-        <v>1.342878787878788</v>
+        <v>1.446233342398694</v>
       </c>
       <c r="T51">
         <v>178.0072407206656</v>
@@ -3430,7 +3430,7 @@
         <v>72</v>
       </c>
       <c r="K52">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="L52">
         <v>8000</v>
@@ -3483,7 +3483,7 @@
         <v>70</v>
       </c>
       <c r="K53">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="L53">
         <v>8000</v>
@@ -3504,10 +3504,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R53">
-        <v>1.800714285714286</v>
+        <v>2.028520339740724</v>
       </c>
       <c r="S53">
-        <v>1.963947368421052</v>
+        <v>2.242263395092639</v>
       </c>
       <c r="T53">
         <v>104.6727003200554</v>
@@ -3542,7 +3542,7 @@
         <v>71</v>
       </c>
       <c r="K54">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="L54">
         <v>8000</v>
@@ -3557,10 +3557,10 @@
         <v>1970747.188758029</v>
       </c>
       <c r="R54">
-        <v>1.280428571428571</v>
+        <v>1.367971510132557</v>
       </c>
       <c r="S54">
-        <v>1.342878787878788</v>
+        <v>1.440661027663225</v>
       </c>
       <c r="T54">
         <v>246.3433985947536</v>
@@ -3601,7 +3601,7 @@
         <v>70</v>
       </c>
       <c r="K55">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="L55">
         <v>8000</v>
@@ -3622,10 +3622,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R55">
-        <v>1.800714285714286</v>
+        <v>2.015705049109126</v>
       </c>
       <c r="S55">
-        <v>1.963947368421052</v>
+        <v>2.22640738080769</v>
       </c>
       <c r="T55">
         <v>144.8560667113305</v>
@@ -3660,7 +3660,7 @@
         <v>72</v>
       </c>
       <c r="K56">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="L56">
         <v>8000</v>
@@ -3707,7 +3707,7 @@
         <v>71</v>
       </c>
       <c r="K57">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="L57">
         <v>8000</v>
@@ -3722,10 +3722,10 @@
         <v>20538.27302959116</v>
       </c>
       <c r="R57">
-        <v>1.280428571428571</v>
+        <v>1.367971510132557</v>
       </c>
       <c r="S57">
-        <v>1.342878787878788</v>
+        <v>1.440661027663225</v>
       </c>
       <c r="T57">
         <v>2.567284128698895</v>
@@ -3766,7 +3766,7 @@
         <v>70</v>
       </c>
       <c r="K58">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="L58">
         <v>8000</v>
@@ -3787,10 +3787,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R58">
-        <v>1.800714285714286</v>
+        <v>2.015705049109126</v>
       </c>
       <c r="S58">
-        <v>1.963947368421052</v>
+        <v>2.22640738080769</v>
       </c>
       <c r="T58">
         <v>1.509627142984733</v>
@@ -3825,7 +3825,7 @@
         <v>72</v>
       </c>
       <c r="K59">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="L59">
         <v>8000</v>
@@ -4532,7 +4532,7 @@
         <v>72</v>
       </c>
       <c r="K72">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="L72">
         <v>8000</v>
@@ -4585,7 +4585,7 @@
         <v>70</v>
       </c>
       <c r="K73">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="L73">
         <v>8000</v>
@@ -4606,10 +4606,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R73">
-        <v>1.800714285714286</v>
+        <v>1.626775542720574</v>
       </c>
       <c r="S73">
-        <v>1.963947368421052</v>
+        <v>1.756382654173023</v>
       </c>
       <c r="T73">
         <v>42.6378758726283</v>
@@ -4644,7 +4644,7 @@
         <v>71</v>
       </c>
       <c r="K74">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="L74">
         <v>8000</v>
@@ -4659,10 +4659,10 @@
         <v>580082.5323943674</v>
       </c>
       <c r="R74">
-        <v>1.280428571428571</v>
+        <v>1.203236793039155</v>
       </c>
       <c r="S74">
-        <v>1.342878787878788</v>
+        <v>1.257328254301852</v>
       </c>
       <c r="T74">
         <v>72.51031654929592</v>
@@ -5192,7 +5192,7 @@
         <v>71</v>
       </c>
       <c r="K84">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="L84">
         <v>8000</v>
@@ -5207,10 +5207,10 @@
         <v>2662221.774016439</v>
       </c>
       <c r="R84">
-        <v>1.280428571428571</v>
+        <v>1.304077921028169</v>
       </c>
       <c r="S84">
-        <v>1.342878787878788</v>
+        <v>1.369214264257821</v>
       </c>
       <c r="T84">
         <v>332.777721752055</v>
@@ -5245,7 +5245,7 @@
         <v>73</v>
       </c>
       <c r="K85">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="L85">
         <v>8000</v>
@@ -5292,7 +5292,7 @@
         <v>73</v>
       </c>
       <c r="K86">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="L86">
         <v>8000</v>
@@ -5339,7 +5339,7 @@
         <v>73</v>
       </c>
       <c r="K87">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="L87">
         <v>8000</v>
@@ -5386,7 +5386,7 @@
         <v>73</v>
       </c>
       <c r="K88">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="L88">
         <v>8000</v>
@@ -5439,7 +5439,7 @@
         <v>70</v>
       </c>
       <c r="K89">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="L89">
         <v>8000</v>
@@ -5460,10 +5460,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R89">
-        <v>1.800714285714286</v>
+        <v>1.856836936506854</v>
       </c>
       <c r="S89">
-        <v>1.963947368421052</v>
+        <v>2.031823338122968</v>
       </c>
       <c r="T89">
         <v>195.6816059904227</v>
@@ -5498,7 +5498,7 @@
         <v>72</v>
       </c>
       <c r="K90">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="L90">
         <v>8000</v>
